--- a/api digital clock website/digital clock layout.xlsx
+++ b/api digital clock website/digital clock layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e069d89b13a752d7/Hyper Island Front End Development/If this then that/JSFUNdamentals/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Github\heavenlycloud\api digital clock website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1EDED984-70E1-4299-814A-64C21934377C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{658A67DD-1C64-4BB9-8C04-001FB9D673C4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1EDED984-70E1-4299-814A-64C21934377C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{35E66E44-27D9-428E-82FD-D9BCACAC875F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15708" windowHeight="6336" xr2:uid="{0B7F2AA9-267C-4514-BC55-54467F4350F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>3 = b2, b8, b5, c2, c5,  c8, d3, d4, d6, d7</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>5 = a3, a4, c2, b2,  b5,  b8, c5, c8, d6, d7</t>
+  </si>
+  <si>
+    <t>a1</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CB0D05-3BE5-4577-B38F-0CCD710F38D7}">
-  <dimension ref="A2:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,126 +441,131 @@
     <col min="22" max="22" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
       <c r="R3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="M6" s="1"/>
       <c r="P6" s="1"/>
       <c r="R6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
